--- a/biology/Botanique/Cuscuta_epithymum/Cuscuta_epithymum.xlsx
+++ b/biology/Botanique/Cuscuta_epithymum/Cuscuta_epithymum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuscuta epithymum
 La Cuscute du thym, Cuscute à petites fleurs (Cuscuta epithymum), encore appelée petite cuscute est une plante herbacée de la famille des Convolvulaceae.
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante qui ne produit pas de chlorophylle, parasite de nombreux arbustes des landes européennes (bruyères, ajoncs, myrtilles).
 Les feuilles sont pratiquement inexistantes, les fleurs, groupées en glomérules aux nœuds, sont roses, parfumées, avec 5 pétales triangulaires, deux styles et des étamines saillantes.
@@ -547,10 +561,12 @@
           <t>Habitat, répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle pousse en Europe, en Asie et dans le sud de l'Afrique, de préférence dans les régions côtières et montagneuses.
-En France : plus fréquente sur les sols pauvres ou drainants, pauvres, secs en été et ensoleillés[1] et rare ou absente dans la moitié sud de la France[2].
+En France : plus fréquente sur les sols pauvres ou drainants, pauvres, secs en été et ensoleillés et rare ou absente dans la moitié sud de la France.
 </t>
         </is>
       </c>
@@ -581,17 +597,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Organes reproducteurs
-Type d'inflorescence glomérules
+          <t>Organes reproducteurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Type d'inflorescence glomérules
 Répartition des sexes : hermaphrodite
 Type de pollinisation : entomogame, autogame
-Période de floraison juin à septembre
-Graine
-Type de fruit : capsule s'ouvrant transversalement.
-Mode de dissémination : barochore
-Habitat et répartition
-Habitat type : pelouses acidophiles médioeuropéennes, planitiaires-collinéennes
-Aire de répartition : eurasiatique méridional[3].</t>
+Période de floraison juin à septembre</t>
         </is>
       </c>
     </row>
@@ -616,20 +631,96 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Graine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Type de fruit : capsule s'ouvrant transversalement.
+Mode de dissémination : barochore</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cuscuta_epithymum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuscuta_epithymum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Habitat type : pelouses acidophiles médioeuropéennes, planitiaires-collinéennes
+Aire de répartition : eurasiatique méridional.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cuscuta_epithymum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuscuta_epithymum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Selon Catalogue of Life                                   (21 octobre 2015)[4] :
+Selon Catalogue of Life                                   (21 octobre 2015) :
 sous-espèce Cuscuta epithymum subsp. araratica
 sous-espèce Cuscuta epithymum subsp. corsicana
 sous-espèce Cuscuta epithymum subsp. epithymum
 sous-espèce Cuscuta epithymum subsp. kotschyi
 variété Cuscuta epithymum var. angustissima
 variété Cuscuta epithymum var. macranthera
-Selon Tropicos                                           (21 octobre 2015)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 octobre 2015) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Cuscuta epithymum subsp. approximata (Bab.) Rouy
 sous-espèce Cuscuta epithymum subsp. epithymum
 variété Cuscuta epithymum var. alba (J. Presl &amp; C. Presl) Trab.
@@ -642,7 +733,7 @@
 variété Cuscuta epithymum var. sagittanthera Engelm.
 variété Cuscuta epithymum var. scabrella (Engelm.) Yunck.
 variété Cuscuta epithymum var. vulgaris Engelm.
-Selon World Checklist of Selected Plant Families (WCSP)  (21 octobre 2015)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (21 octobre 2015) :
 variété Cuscuta epithymum var. alba (J.Presl &amp; C.Presl) Trab. (1907)
 variété Cuscuta epithymum var. angustissima (Engelm.) Yunck. (1932)
 sous-espèce Cuscuta epithymum subsp. epithymum
